--- a/ChamCongCheck.xlsx
+++ b/ChamCongCheck.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Project\GitClone\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClone\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>IVS001</t>
     <phoneticPr fontId="1"/>
@@ -98,54 +98,6 @@
     <t>IVS005</t>
   </si>
   <si>
-    <t>IVS006</t>
-  </si>
-  <si>
-    <t>IVS007</t>
-  </si>
-  <si>
-    <t>IVS008</t>
-  </si>
-  <si>
-    <t>IVS009</t>
-  </si>
-  <si>
-    <t>IVS010</t>
-  </si>
-  <si>
-    <t>IVS011</t>
-  </si>
-  <si>
-    <t>IVS012</t>
-  </si>
-  <si>
-    <t>IVS013</t>
-  </si>
-  <si>
-    <t>IVS014</t>
-  </si>
-  <si>
-    <t>IVS015</t>
-  </si>
-  <si>
-    <t>IVS016</t>
-  </si>
-  <si>
-    <t>IVS017</t>
-  </si>
-  <si>
-    <t>IVS018</t>
-  </si>
-  <si>
-    <t>IVS019</t>
-  </si>
-  <si>
-    <t>IVS020</t>
-  </si>
-  <si>
-    <t>02/04</t>
-  </si>
-  <si>
     <t>03/04, 04/04</t>
   </si>
   <si>
@@ -153,6 +105,21 @@
   </si>
   <si>
     <t>3,5</t>
+  </si>
+  <si>
+    <t>02/04, 16/04</t>
+  </si>
+  <si>
+    <t>1, 1</t>
+  </si>
+  <si>
+    <t>16/04</t>
+  </si>
+  <si>
+    <t>17/04, 17/04</t>
+  </si>
+  <si>
+    <t>18/04, 19/04</t>
   </si>
 </sst>
 </file>
@@ -160,20 +127,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="164" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -205,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -513,23 +480,23 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.25" customWidth="1"/>
-    <col min="12" max="12" width="28.625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -564,7 +531,7 @@
       </c>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="41.25" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -595,7 +562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -606,17 +573,17 @@
         <v>13</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I3" s="1">
         <f>F3-H3</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>-45645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
@@ -627,7 +594,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -637,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
@@ -648,17 +615,17 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I22" si="0">F5-H5</f>
         <v>10.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
@@ -668,13 +635,18 @@
       <c r="F6" s="1">
         <v>12</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -684,35 +656,39 @@
       <c r="F7" s="1">
         <v>14</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+        <v>-45644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="1">
         <v>12</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.5</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="F9" s="1">
         <v>12</v>
       </c>
@@ -722,13 +698,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="1">
         <v>13</v>
       </c>
@@ -738,13 +711,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="F11" s="1">
         <v>12</v>
       </c>
@@ -754,13 +724,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
       <c r="F12" s="1">
         <v>14</v>
       </c>
@@ -770,13 +737,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
       <c r="F13" s="1">
         <v>12</v>
       </c>
@@ -786,12 +750,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
       </c>
       <c r="F14" s="1">
         <v>13</v>
@@ -802,12 +763,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
       </c>
       <c r="F15" s="1">
         <v>12</v>
@@ -818,13 +776,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="F16" s="1">
         <v>12</v>
       </c>
@@ -834,13 +789,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
       <c r="F17" s="1">
         <v>13</v>
       </c>
@@ -850,13 +802,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
       <c r="F18" s="1">
         <v>12</v>
       </c>
@@ -866,13 +815,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
       <c r="F19" s="1">
         <v>13</v>
       </c>
@@ -882,13 +828,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
       <c r="F20" s="1">
         <v>12</v>
       </c>
@@ -898,13 +841,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
       <c r="F21" s="1">
         <v>12</v>
       </c>
@@ -914,12 +854,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
       </c>
       <c r="F22" s="1">
         <v>14</v>
